--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/20/seed5/result_data_RandomForest.xlsx
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.185799999999999</v>
+        <v>-8.051999999999998</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.803499999999998</v>
+        <v>-6.834499999999997</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.476400000000002</v>
+        <v>-8.594000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.7433</v>
+        <v>-8.732100000000004</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.192699999999999</v>
+        <v>-8.259999999999998</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.4056</v>
+        <v>-8.537799999999997</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.896799999999995</v>
+        <v>-8.9186</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.240099999999998</v>
+        <v>-8.092399999999998</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.597799999999999</v>
+        <v>-8.691899999999999</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.239399999999995</v>
+        <v>-8.357699999999999</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.180000000000003</v>
+        <v>-8.256600000000006</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.129799999999996</v>
+        <v>-8.332399999999996</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.916099999999997</v>
+        <v>-7.949299999999996</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.393799999999996</v>
+        <v>-6.406899999999999</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.213799999999996</v>
+        <v>-7.253199999999996</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.370099999999995</v>
+        <v>-7.365899999999999</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.7879</v>
+        <v>-7.751299999999999</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.488600000000005</v>
+        <v>-8.605500000000001</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.612099999999994</v>
+        <v>-7.605599999999994</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.633299999999997</v>
+        <v>-6.641499999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.360399999999996</v>
+        <v>-6.373999999999999</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.838099999999998</v>
+        <v>-7.699100000000004</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
